--- a/public/resource/sample.xlsx
+++ b/public/resource/sample.xlsx
@@ -1,58 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quihuynh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quihuynh/Desktop/project/cuscofftimev2/public/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A63A485-F377-9943-932D-06A97EB7470A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EB3C61-5FFD-B242-812C-EB31C0C07518}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14520" xr2:uid="{59FB99B8-5B23-304A-8005-9E898C7309FF}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14520" xr2:uid="{52C15670-3AE3-D74C-B4F6-6617D4841A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>TRUNG TÂM CÔNG NGHỆ PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ANTHO </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="19"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">NIVERSITY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="19"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">OFTWARE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="19"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ENTER</t>
+    </r>
+  </si>
+  <si>
+    <t>Khu III, Đại học Cần Thơ - 01 Lý Tự Trọng, TP. Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+  </si>
+  <si>
+    <t>PHÂN CÔNG GIẢNG DẠY THÁNG</t>
+  </si>
+  <si>
+    <t>1. Bảng phân công</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Ngày BĐ</t>
+  </si>
   <si>
     <t>Môn Học</t>
   </si>
   <si>
-    <t>Từ Ngày</t>
-  </si>
-  <si>
-    <t>Đến Ngày</t>
-  </si>
-  <si>
-    <t>Tháng</t>
-  </si>
-  <si>
-    <t>Số Tiết</t>
+    <t>Lớp</t>
   </si>
   <si>
     <t>Giờ</t>
   </si>
   <si>
-    <t>Tên</t>
+    <t>Giáo Viên</t>
+  </si>
+  <si>
+    <t>Số giờ</t>
+  </si>
+  <si>
+    <t>2. Tổng hợp giờ giảng</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>Ngoài Giờ</t>
+  </si>
+  <si>
+    <t>Trong Giờ</t>
+  </si>
+  <si>
+    <t>Tổng Cộng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,34 +168,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -96,18 +244,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,6 +352,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="CUSC- EDU- Mau">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC43F99-F23B-6E4C-A580-50658546E806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="38099"/>
+          <a:ext cx="698500" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,94 +708,843 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98198A5-FB0D-FE46-B10C-B9084253E7BE}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9A1BEA-2C91-1A4E-9AF6-06A88FC4CF91}">
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="4.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="2">
+        <f>SUM(K9:K12)</f>
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="L13" s="2">
+        <f t="shared" ref="L13:M13" si="0">SUM(L9:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Times New Roman,Italic"&amp;11BM-6.44/DT/CUSC 1/0&amp;"-,Regular"&amp;12
+&amp;R&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/resource/sample.xlsx
+++ b/public/resource/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quihuynh/Desktop/project/cuscofftimev2/public/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EB3C61-5FFD-B242-812C-EB31C0C07518}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9F35D5-D04A-D844-830E-C2FA285D0B01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14520" xr2:uid="{52C15670-3AE3-D74C-B4F6-6617D4841A55}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{52C15670-3AE3-D74C-B4F6-6617D4841A55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,28 +306,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,6 +319,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9A1BEA-2C91-1A4E-9AF6-06A88FC4CF91}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,8 +721,8 @@
     <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="4.6640625" style="1" customWidth="1"/>
@@ -733,58 +733,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -796,50 +796,42 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="17"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
@@ -848,13 +840,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -864,23 +850,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -904,13 +874,7 @@
       <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="17"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -920,13 +884,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="17"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -936,13 +894,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -952,13 +904,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="17"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -968,24 +914,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="2">
-        <f>SUM(K9:K12)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" ref="L13:M13" si="0">SUM(L9:L12)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -997,11 +926,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
@@ -1013,11 +942,11 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -1029,14 +958,16 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1045,11 +976,11 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -1061,107 +992,122 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="2">
+        <f>SUM(C20:C23)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:E24" si="0">SUM(D20:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
@@ -1173,11 +1119,11 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
@@ -1189,11 +1135,11 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
@@ -1205,11 +1151,11 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
@@ -1221,11 +1167,11 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1237,11 +1183,11 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
@@ -1253,11 +1199,11 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
@@ -1269,11 +1215,11 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
@@ -1285,11 +1231,11 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -1301,11 +1247,11 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -1317,11 +1263,11 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
@@ -1333,11 +1279,11 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
@@ -1349,11 +1295,11 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
@@ -1365,11 +1311,11 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
@@ -1381,11 +1327,11 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
@@ -1397,11 +1343,11 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
@@ -1413,11 +1359,11 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
@@ -1429,11 +1375,11 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
@@ -1445,11 +1391,11 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
@@ -1461,11 +1407,11 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
@@ -1477,11 +1423,11 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
@@ -1493,11 +1439,11 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
@@ -1509,35 +1455,35 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
